--- a/project-acn/results/Results.xlsx
+++ b/project-acn/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SSgumS\Downloads\Compressed\cloudsimsdn\project-acn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AB9652-CBCB-4578-8E52-B55CDEF9193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA1DAD-93DB-4FE5-B3CE-32A2E88B0B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
   </bookViews>
@@ -55,7 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +66,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,13 +96,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -303,10 +323,10 @@
             <c:numRef>
               <c:f>Sheet1!$B$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.41</c:v>
+                  <c:v>0.97331189884895597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,10 +461,10 @@
             <c:numRef>
               <c:f>Sheet1!$C$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.7</c:v>
+                  <c:v>9.7855404994651298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,10 +599,10 @@
             <c:numRef>
               <c:f>Sheet1!$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.68</c:v>
+                  <c:v>4.9203750281142797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +997,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1298,13 +1318,13 @@
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.7555473982924999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.208883632233589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,13 +1462,13 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.76004301943347E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.39</c:v>
+                  <c:v>2.4118845871233399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,13 +1606,13 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.6525640041961299E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.63</c:v>
+                  <c:v>1.1969367069761001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,7 +2052,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3650,13 +3670,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -3673,10 +3693,10 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3684,19 +3704,19 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1.41</v>
+      <c r="B2" s="1">
+        <v>0.97331189884895597</v>
       </c>
-      <c r="C2">
-        <v>13.7</v>
+      <c r="C2" s="1">
+        <v>9.7855404994651298</v>
       </c>
-      <c r="D2">
-        <v>22.68</v>
+      <c r="D2" s="1">
+        <v>4.9203750281142797</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>24.69</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.79</v>
       </c>
     </row>
@@ -3704,19 +3724,19 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>2.7555473982924999E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.76004301943347E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.6525640041961299E-2</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.03</v>
       </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3">
-        <v>0.03</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.03</v>
       </c>
     </row>
@@ -3724,19 +3744,19 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0.32</v>
+      <c r="B4" s="1">
+        <v>0.208883632233589</v>
       </c>
-      <c r="C4">
-        <v>3.39</v>
+      <c r="C4" s="1">
+        <v>2.4118845871233399</v>
       </c>
-      <c r="D4">
-        <v>5.63</v>
+      <c r="D4" s="1">
+        <v>1.1969367069761001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>6.14</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.16</v>
       </c>
     </row>

--- a/project-acn/results/Results.xlsx
+++ b/project-acn/results/Results.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SSgumS\Downloads\Compressed\cloudsimsdn\project-acn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA1DAD-93DB-4FE5-B3CE-32A2E88B0B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C82A1-AD19-4689-9B8B-611F3796A148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" activeTab="1" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2 - Base" sheetId="2" r:id="rId2"/>
+    <sheet name="Part 2 - 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Part 2 - 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Part 2 - 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Part 2 - 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Scale</t>
   </si>
@@ -56,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -68,23 +73,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,18 +96,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -204,7 +203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Part 1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -310,7 +309,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Part 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -321,7 +320,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'Part 1'!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -342,7 +341,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Part 1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -448,7 +447,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Part 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -459,7 +458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Part 1'!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -480,7 +479,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Part 1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -586,7 +585,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Part 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -597,7 +596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Part 1'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -618,7 +617,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Part 1'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,7 +723,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Part 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -735,12 +734,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>'Part 1'!$E$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24.69</c:v>
+                  <c:v>10.1428101670197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,7 +755,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'Part 1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +861,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Part 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,12 +872,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>'Part 1'!$F$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.79</c:v>
+                  <c:v>0.57955052962437803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,7 +1040,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1196,7 +1195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Part 1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1302,7 +1301,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$4</c:f>
+              <c:f>'Part 1'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1316,7 +1315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>'Part 1'!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1340,7 +1339,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Part 1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1446,7 +1445,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$4</c:f>
+              <c:f>'Part 1'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1460,7 +1459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:f>'Part 1'!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1484,7 +1483,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Part 1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1590,7 +1589,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$4</c:f>
+              <c:f>'Part 1'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1604,7 +1603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:f>'Part 1'!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1628,7 +1627,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Part 1'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1734,7 +1733,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$4</c:f>
+              <c:f>'Part 1'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1748,15 +1747,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:f>'Part 1'!$E$3:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.66919307987654E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.14</c:v>
+                  <c:v>2.5023376282564902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1771,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'Part 1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1878,7 +1877,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$4</c:f>
+              <c:f>'Part 1'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1892,15 +1891,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$4</c:f>
+              <c:f>'Part 1'!$F$3:$F$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.7758112955620699E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.11018999121157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,6 +2162,3586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3184965140115601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F06-4909-84F0-E0DD8DB893C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.060148485207799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F06-4909-84F0-E0DD8DB893C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.680612671059801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F06-4909-84F0-E0DD8DB893C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3024533557112501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBBE-410D-82B6-E53F572F376C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.041581628764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBBE-410D-82B6-E53F572F376C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.9633192865467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBBE-410D-82B6-E53F572F376C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC17-4B26-8B24-94F6CB77178A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.7859999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC17-4B26-8B24-94F6CB77178A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC17-4B26-8B24-94F6CB77178A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A49-4806-BA7D-7372D13B4AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.7859999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A49-4806-BA7D-7372D13B4AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A49-4806-BA7D-7372D13B4AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A55-43F2-9424-A5F3ADD95C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.7859999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A55-43F2-9424-A5F3ADD95C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A55-43F2-9424-A5F3ADD95C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2243,6 +5822,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -2769,6 +6548,2631 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3362,6 +9766,221 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3CB56C-28A2-4C81-827B-DC599CE67E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3904B6-5B1F-493B-AE8B-C66431D46F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2140F6C-BC8F-423E-9DC4-7FD0B047E1EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57399D84-DC6C-41C5-AE1D-C99117F47D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A8A4C1-9888-410A-B44F-869E24EC4370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3669,8 +10288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D56E5A5-932E-4C4A-B611-C12A42140887}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,10 +10312,10 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3713,11 +10332,11 @@
       <c r="D2" s="1">
         <v>4.9203750281142797</v>
       </c>
-      <c r="E2" s="3">
-        <v>24.69</v>
+      <c r="E2" s="1">
+        <v>10.1428101670197</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.79</v>
+      <c r="F2" s="1">
+        <v>0.57955052962437803</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3733,11 +10352,11 @@
       <c r="D3" s="2">
         <v>2.6525640041961299E-2</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.03</v>
+      <c r="E3" s="2">
+        <v>2.66919307987654E-2</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.03</v>
+      <c r="F3" s="2">
+        <v>2.7758112955620699E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3753,11 +10372,222 @@
       <c r="D4" s="1">
         <v>1.1969367069761001</v>
       </c>
-      <c r="E4" s="3">
-        <v>6.14</v>
+      <c r="E4" s="1">
+        <v>2.5023376282564902</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.16</v>
+      <c r="F4" s="1">
+        <v>0.11018999121157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4B5581-2A84-4C23-BA66-1E650EFAF335}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.3184965140115601</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11.060148485207799</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22.680612671059801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9D5181-DF46-4632-90A2-460DDAA64CF7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.3024533557112501</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11.041581628764</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22.9633192865467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8AA747-1BD3-48C1-BC19-E3699AEFA63B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E0E44-AD01-4FED-A7D2-F4FF5AB8E4A3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F930C-129C-4516-B750-120942ECE43D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.92</v>
       </c>
     </row>
   </sheetData>

--- a/project-acn/results/Results.xlsx
+++ b/project-acn/results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SSgumS\Downloads\Compressed\cloudsimsdn\project-acn\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sepehr\Downloads\CloudsimSDN-main\project-acn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C82A1-AD19-4689-9B8B-611F3796A148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A09C0-EA0D-4F59-A55D-FA4EE7AED9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" activeTab="1" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Scale</t>
   </si>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +78,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,17 +108,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,6 +900,1482 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E42D-435F-B715-20010EEB542A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG processing time within a VM and network transmissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.8771768141830901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66206832495372303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-749A-4BBC-AC16-6D3BE4051656}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.84128238495115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9810316565231001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-749A-4BBC-AC16-6D3BE4051656}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.8265609607862702E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7210489428954396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-749A-4BBC-AC16-6D3BE4051656}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214727152"/>
+        <c:axId val="1214723824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214727152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214723824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214723824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214727152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A55-43F2-9424-A5F3ADD95C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.7859999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A55-43F2-9424-A5F3ADD95C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A55-43F2-9424-A5F3ADD95C91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2365,7 +3856,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3184965140115601</c:v>
+                  <c:v>1.2684060954899301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,7 +3994,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.060148485207799</c:v>
+                  <c:v>11.0628226584309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,6 +4404,766 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>AVG processing time within a VM and network transmissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.86321159554567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28131137892816099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FF6-4581-ACDB-F0008AC407D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.8624566330289598E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72992495669487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FF6-4581-ACDB-F0008AC407D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.8130137356478999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6349904960693502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FF6-4581-ACDB-F0008AC407D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214727152"/>
+        <c:axId val="1214723824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214727152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214723824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214723824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214727152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>AVG response time of requests</a:t>
             </a:r>
           </a:p>
@@ -3081,7 +5332,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3024533557112501</c:v>
+                  <c:v>1.2684060954899301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,7 +5470,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.041581628764</c:v>
+                  <c:v>11.0628226584309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,7 +5608,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.9633192865467</c:v>
+                  <c:v>22.680612671059801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,722 +5616,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FBBE-410D-82B6-E53F572F376C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1214703440"/>
-        <c:axId val="1214718832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1214703440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1214718832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1214718832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>AVG Response Time (sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1214703440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AVG response time of requests</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 2 - 2'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - 2'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Response</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 2'!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC17-4B26-8B24-94F6CB77178A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 2 - 2'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scale-NF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - 2'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Response</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 2'!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9.7859999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC17-4B26-8B24-94F6CB77178A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 2 - 2'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scale-BW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - 2'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Response</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 2'!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AC17-4B26-8B24-94F6CB77178A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4345,6 +5880,2242 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>AVG processing time within a VM and network transmissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>6.1319253586823597E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27516879823242002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A75-4FEF-8643-EC58502A0B1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>6.21965014164626E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7316640468820301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A75-4FEF-8643-EC58502A0B1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 1'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>5.7279830384748204E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6031635307597396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A75-4FEF-8643-EC58502A0B1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214727152"/>
+        <c:axId val="1214723824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214727152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214723824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214723824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214727152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.21762698666832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC17-4B26-8B24-94F6CB77178A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.128578971119801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC17-4B26-8B24-94F6CB77178A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.605051184233101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC17-4B26-8B24-94F6CB77178A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG processing time within a VM and network transmissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.83440294174295E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51897670989529399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8573-4C1B-B822-7F84C8FDB9FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.48734979385371E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5010528703567996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8573-4C1B-B822-7F84C8FDB9FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 2'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.78786636464467E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6164144665002302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8573-4C1B-B822-7F84C8FDB9FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214727152"/>
+        <c:axId val="1214723824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214727152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214723824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214723824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214727152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>AVG response time of requests</a:t>
             </a:r>
           </a:p>
@@ -4513,7 +8284,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>2.79213214052402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4651,7 +8422,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.7859999999999996</c:v>
+                  <c:v>12.066190745339901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,7 +8560,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.92</c:v>
+                  <c:v>23.0255238196211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5026,723 +8797,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AVG response time of requests</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 2 - 5'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - 5'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Response</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 5'!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A55-43F2-9424-A5F3ADD95C91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 2 - 5'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scale-NF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - 5'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Response</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 5'!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9.7859999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A55-43F2-9424-A5F3ADD95C91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Part 2 - 5'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scale-BW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - 5'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Response</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 5'!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A55-43F2-9424-A5F3ADD95C91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1214703440"/>
-        <c:axId val="1214718832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1214703440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1214718832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1214718832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>AVG Response Time (sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1214703440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6022,6 +9157,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -6547,7 +9762,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7072,7 +10287,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7597,7 +10812,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8122,7 +11337,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8647,7 +11862,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9172,7 +12387,2107 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9814,6 +15129,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301B2209-7821-4CFC-A50D-9AAED83DEF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9852,6 +15205,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87D80E2-D055-4D1E-8FDD-845888CF5B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9900,6 +15291,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F502F8-E2CE-474A-BF0A-4AA91D3AB947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9938,6 +15367,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7635851-526F-4AB1-899F-8C57F841F3FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10289,7 +15756,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10387,15 +15854,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4B5581-2A84-4C23-BA66-1E650EFAF335}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10414,13 +15881,41 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>1.3184965140115601</v>
+        <v>1.2684060954899301</v>
       </c>
       <c r="C2" s="1">
-        <v>11.060148485207799</v>
+        <v>11.0628226584309</v>
       </c>
       <c r="D2" s="1">
         <v>22.680612671059801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.86321159554567E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.8624566330289598E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8130137356478999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.28131137892816099</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.72992495669487</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6349904960693502</v>
       </c>
     </row>
   </sheetData>
@@ -10431,13 +15926,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9D5181-DF46-4632-90A2-460DDAA64CF7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -10455,13 +15953,41 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>1.3024533557112501</v>
+        <v>1.2684060954899301</v>
       </c>
       <c r="C2" s="1">
-        <v>11.041581628764</v>
+        <v>11.0628226584309</v>
       </c>
       <c r="D2" s="1">
-        <v>22.9633192865467</v>
+        <v>22.680612671059801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.1319253586823597E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.21965014164626E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.7279830384748204E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.27516879823242002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.7316640468820301</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6031635307597396</v>
       </c>
     </row>
   </sheetData>
@@ -10472,10 +15998,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8AA747-1BD3-48C1-BC19-E3699AEFA63B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.21762698666832</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30.128578971119801</v>
+      </c>
+      <c r="D2" s="4">
+        <v>22.605051184233101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.83440294174295E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.48734979385371E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.78786636464467E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.51897670989529399</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.5010528703567996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6164144665002302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E0E44-AD01-4FED-A7D2-F4FF5AB8E4A3}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.79213214052402</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12.066190745339901</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.0255238196211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.8771768141830901E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.84128238495115E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8265609607862702E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.66206832495372303</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.9810316565231001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.7210489428954396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F930C-129C-4516-B750-120942ECE43D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10496,97 +16168,13 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>0.97299999999999998</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>9.7859999999999996</v>
       </c>
-      <c r="D2" s="4">
-        <v>4.92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E0E44-AD01-4FED-A7D2-F4FF5AB8E4A3}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.7859999999999996</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4.92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F930C-129C-4516-B750-120942ECE43D}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.7859999999999996</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4.92</v>
       </c>
     </row>

--- a/project-acn/results/Results.xlsx
+++ b/project-acn/results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sepehr\Downloads\CloudsimSDN-main\project-acn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A09C0-EA0D-4F59-A55D-FA4EE7AED9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AF2EC-673A-4199-B174-BBD214817F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Part 2 - 2" sheetId="4" r:id="rId4"/>
     <sheet name="Part 2 - 4" sheetId="5" r:id="rId5"/>
     <sheet name="Part 2 - 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Part 2 - Summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
     <t>Scale</t>
   </si>
@@ -63,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,25 +79,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,20 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2092,7 +2078,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>1.2684060954899301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2216,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.7859999999999996</c:v>
+                  <c:v>11.0628226584309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,7 +2354,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.92</c:v>
+                  <c:v>22.680612671059801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,6 +2441,3931 @@
                   <a:rPr lang="en-US"/>
                   <a:t>AVG Response Time (sec)</a:t>
                 </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG processing time within a VM and network transmissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.86321159554567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28131137892816099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8437-410D-B81B-53417627AD11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.8624566330289598E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72992495669487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8437-410D-B81B-53417627AD11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - 5'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VM Processing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Network Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>2.8130137356478999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6349904960693502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8437-410D-B81B-53417627AD11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214727152"/>
+        <c:axId val="1214723824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214727152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214723824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214723824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214727152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AVG response time of requests</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2684060954899301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0628226584309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.680612671059801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C23F-40FF-A9F2-44E80F0CE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2684060954899301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0628226584309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.680612671059801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C23F-40FF-A9F2-44E80F0CE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.21762698666832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.128578971119801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.605051184233101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C23F-40FF-A9F2-44E80F0CE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.79213214052402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.066190745339901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0255238196211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C23F-40FF-A9F2-44E80F0CE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2684060954899301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0628226584309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.680612671059801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C23F-40FF-A9F2-44E80F0CE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>AVG Response Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AVG processing time within a VM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.86321159554567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8624566330289598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8130137356478999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6613-4922-A007-8F4B1F6C267F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1319253586823597E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.21965014164626E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7279830384748204E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6613-4922-A007-8F4B1F6C267F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.83440294174295E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.48734979385371E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.78786636464467E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6613-4922-A007-8F4B1F6C267F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8771768141830901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.84128238495115E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8265609607862702E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6613-4922-A007-8F4B1F6C267F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.86321159554567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8624566330289598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8130137356478999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6613-4922-A007-8F4B1F6C267F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214703440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AVG processing time within network transmissions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - Base'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28131137892816099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72992495669487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6349904960693502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-052F-43C7-B286-0E4E77EB6F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 1'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.27516879823242002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7316640468820301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6031635307597396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-052F-43C7-B286-0E4E77EB6F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 2'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.51897670989529399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5010528703567996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6164144665002302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-052F-43C7-B286-0E4E77EB6F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 4'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.66206832495372303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9810316565231001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7210489428954396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-052F-43C7-B286-0E4E77EB6F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 5'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28131137892816099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72992495669487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6349904960693502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-052F-43C7-B286-0E4E77EB6F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1214703440"/>
+        <c:axId val="1214718832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214703440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214718832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1214718832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>AVG Processing Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8878,6 +12789,166 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10288,6 +14359,2106 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15453,6 +21624,163 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471B6F0-15BF-4030-A6C3-652B6A2C675E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EB9521-18A5-4803-BA8A-CEE8B1D6B6D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E51244-2ED3-4DEC-8837-6B122EC18347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169A8885-177C-49D4-B411-EFCAC690E166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15856,8 +22184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4B5581-2A84-4C23-BA66-1E650EFAF335}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15929,7 +22257,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16001,7 +22329,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16074,7 +22402,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16144,42 +22472,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F930C-129C-4516-B750-120942ECE43D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.97299999999999998</v>
+      <c r="B2" s="1">
+        <v>1.2684060954899301</v>
       </c>
-      <c r="C2" s="5">
-        <v>9.7859999999999996</v>
+      <c r="C2" s="1">
+        <v>11.0628226584309</v>
       </c>
-      <c r="D2" s="5">
-        <v>4.92</v>
+      <c r="D2" s="1">
+        <v>22.680612671059801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.86321159554567E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.8624566330289598E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8130137356478999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.28131137892816099</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.72992495669487</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6349904960693502</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D213A2-CCE2-4359-9865-301F20D5DF02}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project-acn/results/Results.xlsx
+++ b/project-acn/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sepehr\Downloads\CloudsimSDN-main\project-acn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AF2EC-673A-4199-B174-BBD214817F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CB370-F2B9-40F1-B412-509BFF2C8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
   </bookViews>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +79,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,17 +109,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22185,7 +22201,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22402,7 +22418,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22475,7 +22491,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22498,13 +22514,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>1.2684060954899301</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>11.0628226584309</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>22.680612671059801</v>
       </c>
     </row>
@@ -22512,13 +22528,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>2.86321159554567E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>2.8624566330289598E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>2.8130137356478999E-2</v>
       </c>
     </row>
@@ -22526,13 +22542,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>0.28131137892816099</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>2.72992495669487</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>5.6349904960693502</v>
       </c>
     </row>
@@ -22547,7 +22563,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project-acn/results/Results.xlsx
+++ b/project-acn/results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sepehr\Downloads\CloudsimSDN-main\project-acn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CB370-F2B9-40F1-B412-509BFF2C8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BF7CE4-6CE5-4D09-802A-86C0AD5388B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8AEF8FF4-CBA6-4DBF-8F82-DF1A8EA55659}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Part 2 - Base" sheetId="2" r:id="rId2"/>
     <sheet name="Part 2 - 1" sheetId="3" r:id="rId3"/>
     <sheet name="Part 2 - 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Part 2 - 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Part 2 - 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Part 2 - 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Part 2 - 4" sheetId="5" r:id="rId6"/>
     <sheet name="Part 2 - Summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,25 +79,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,21 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,7 +1196,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$B$1</c:f>
+              <c:f>'Part 2 - 3'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,7 +1302,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
+              <c:f>'Part 2 - 3'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1332,22 +1316,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 4'!$B$3:$B$4</c:f>
+              <c:f>'Part 2 - 3'!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.8771768141830901E-2</c:v>
+                  <c:v>2.84928429968202E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66206832495372303</c:v>
+                  <c:v>0.750157140204742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-749A-4BBC-AC16-6D3BE4051656}"/>
+              <c16:uniqueId val="{00000000-8437-410D-B81B-53417627AD11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1356,7 +1340,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$C$1</c:f>
+              <c:f>'Part 2 - 3'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1462,7 +1446,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
+              <c:f>'Part 2 - 3'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1476,22 +1460,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 4'!$C$3:$C$4</c:f>
+              <c:f>'Part 2 - 3'!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.84128238495115E-2</c:v>
+                  <c:v>2.8235726228507702E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9810316565231001</c:v>
+                  <c:v>4.3250035140233303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-749A-4BBC-AC16-6D3BE4051656}"/>
+              <c16:uniqueId val="{00000001-8437-410D-B81B-53417627AD11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1500,7 +1484,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$D$1</c:f>
+              <c:f>'Part 2 - 3'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1606,7 +1590,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
+              <c:f>'Part 2 - 3'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1620,22 +1604,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 4'!$D$3:$D$4</c:f>
+              <c:f>'Part 2 - 3'!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.8265609607862702E-2</c:v>
+                  <c:v>2.87158384749788E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7210489428954396</c:v>
+                  <c:v>0.69758402760984595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-749A-4BBC-AC16-6D3BE4051656}"/>
+              <c16:uniqueId val="{00000002-8437-410D-B81B-53417627AD11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1972,7 +1956,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$B$1</c:f>
+              <c:f>'Part 2 - 4'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2078,7 +2062,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:f>'Part 2 - 4'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,19 +2073,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 5'!$B$2</c:f>
+              <c:f>'Part 2 - 4'!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2684060954899301</c:v>
+                  <c:v>2.79213214052402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A55-43F2-9424-A5F3ADD95C91}"/>
+              <c16:uniqueId val="{00000000-3A49-4806-BA7D-7372D13B4AFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2110,7 +2094,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$C$1</c:f>
+              <c:f>'Part 2 - 4'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2216,7 +2200,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:f>'Part 2 - 4'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2227,19 +2211,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 5'!$C$2</c:f>
+              <c:f>'Part 2 - 4'!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.0628226584309</c:v>
+                  <c:v>12.066190745339901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A55-43F2-9424-A5F3ADD95C91}"/>
+              <c16:uniqueId val="{00000001-3A49-4806-BA7D-7372D13B4AFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2248,7 +2232,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$D$1</c:f>
+              <c:f>'Part 2 - 4'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2354,7 +2338,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$A$2</c:f>
+              <c:f>'Part 2 - 4'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2365,19 +2349,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 5'!$D$2</c:f>
+              <c:f>'Part 2 - 4'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.680612671059801</c:v>
+                  <c:v>23.0255238196211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A55-43F2-9424-A5F3ADD95C91}"/>
+              <c16:uniqueId val="{00000002-3A49-4806-BA7D-7372D13B4AFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2688,7 +2672,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$B$1</c:f>
+              <c:f>'Part 2 - 4'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2794,7 +2778,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$A$3:$A$4</c:f>
+              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2808,22 +2792,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 5'!$B$3:$B$4</c:f>
+              <c:f>'Part 2 - 4'!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.86321159554567E-2</c:v>
+                  <c:v>2.8771768141830901E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28131137892816099</c:v>
+                  <c:v>0.66206832495372303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8437-410D-B81B-53417627AD11}"/>
+              <c16:uniqueId val="{00000000-749A-4BBC-AC16-6D3BE4051656}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2832,7 +2816,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$C$1</c:f>
+              <c:f>'Part 2 - 4'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2938,7 +2922,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$A$3:$A$4</c:f>
+              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2952,22 +2936,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 5'!$C$3:$C$4</c:f>
+              <c:f>'Part 2 - 4'!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.8624566330289598E-2</c:v>
+                  <c:v>2.84128238495115E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.72992495669487</c:v>
+                  <c:v>2.9810316565231001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8437-410D-B81B-53417627AD11}"/>
+              <c16:uniqueId val="{00000001-749A-4BBC-AC16-6D3BE4051656}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2976,7 +2960,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$D$1</c:f>
+              <c:f>'Part 2 - 4'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3082,7 +3066,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 5'!$A$3:$A$4</c:f>
+              <c:f>'Part 2 - 4'!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3096,22 +3080,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 5'!$D$3:$D$4</c:f>
+              <c:f>'Part 2 - 4'!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>2.8130137356478999E-2</c:v>
+                  <c:v>2.8265609607862702E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6349904960693502</c:v>
+                  <c:v>5.7210489428954396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8437-410D-B81B-53417627AD11}"/>
+              <c16:uniqueId val="{00000002-749A-4BBC-AC16-6D3BE4051656}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3875,8 +3859,150 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 3'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1430927758030598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.441192687235802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9339153028142801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C23F-40FF-A9F2-44E80F0CE54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>4</c:v>
           </c:tx>
@@ -4013,148 +4139,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C23F-40FF-A9F2-44E80F0CE54F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scale-NF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scale-BW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 5'!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.2684060954899301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.0628226584309</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.680612671059801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C23F-40FF-A9F2-44E80F0CE54F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4930,8 +4914,150 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 3'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.84928429968202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8235726228507702E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.87158384749788E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6613-4922-A007-8F4B1F6C267F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>4</c:v>
           </c:tx>
@@ -5068,148 +5194,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6613-4922-A007-8F4B1F6C267F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scale-NF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scale-BW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 5'!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.86321159554567E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8624566330289598E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8130137356478999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6613-4922-A007-8F4B1F6C267F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5985,8 +5969,150 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scale</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scale-NF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scale-BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2 - 3'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.750157140204742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3250035140233303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69758402760984595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-052F-43C7-B286-0E4E77EB6F1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>4</c:v>
           </c:tx>
@@ -6123,148 +6249,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-052F-43C7-B286-0E4E77EB6F1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Part 2 - Base'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scale</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scale-NF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scale-BW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Part 2 - 5'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.28131137892816099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.72992495669487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6349904960693502</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-052F-43C7-B286-0E4E77EB6F1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12089,7 +12073,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$B$1</c:f>
+              <c:f>'Part 2 - 3'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12195,7 +12179,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$A$2</c:f>
+              <c:f>'Part 2 - 3'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12206,19 +12190,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 4'!$B$2</c:f>
+              <c:f>'Part 2 - 3'!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.79213214052402</c:v>
+                  <c:v>3.1430927758030598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A49-4806-BA7D-7372D13B4AFB}"/>
+              <c16:uniqueId val="{00000000-3A55-43F2-9424-A5F3ADD95C91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12227,7 +12211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$C$1</c:f>
+              <c:f>'Part 2 - 3'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12333,7 +12317,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$A$2</c:f>
+              <c:f>'Part 2 - 3'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12344,19 +12328,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 4'!$C$2</c:f>
+              <c:f>'Part 2 - 3'!$C$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.066190745339901</c:v>
+                  <c:v>17.441192687235802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A49-4806-BA7D-7372D13B4AFB}"/>
+              <c16:uniqueId val="{00000001-3A55-43F2-9424-A5F3ADD95C91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12365,7 +12349,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$D$1</c:f>
+              <c:f>'Part 2 - 3'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12471,7 +12455,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Part 2 - 4'!$A$2</c:f>
+              <c:f>'Part 2 - 3'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12482,19 +12466,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Part 2 - 4'!$D$2</c:f>
+              <c:f>'Part 2 - 3'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23.0255238196211</c:v>
+                  <c:v>2.9339153028142801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A49-4806-BA7D-7372D13B4AFB}"/>
+              <c16:uniqueId val="{00000002-3A55-43F2-9424-A5F3ADD95C91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21539,7 +21523,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57399D84-DC6C-41C5-AE1D-C99117F47D4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A8A4C1-9888-410A-B44F-869E24EC4370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21577,7 +21561,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7635851-526F-4AB1-899F-8C57F841F3FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471B6F0-15BF-4030-A6C3-652B6A2C675E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21620,7 +21604,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A8A4C1-9888-410A-B44F-869E24EC4370}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57399D84-DC6C-41C5-AE1D-C99117F47D4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21658,7 +21642,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3471B6F0-15BF-4030-A6C3-652B6A2C675E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7635851-526F-4AB1-899F-8C57F841F3FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22414,6 +22398,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F930C-129C-4516-B750-120942ECE43D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.1430927758030598</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17.441192687235802</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.9339153028142801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.84928429968202E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.8235726228507702E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.87158384749788E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.750157140204742</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.3250035140233303</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.69758402760984595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10E0E44-AD01-4FED-A7D2-F4FF5AB8E4A3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -22486,78 +22542,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85F930C-129C-4516-B750-120942ECE43D}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.2684060954899301</v>
-      </c>
-      <c r="C2" s="5">
-        <v>11.0628226584309</v>
-      </c>
-      <c r="D2" s="5">
-        <v>22.680612671059801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2.86321159554567E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.8624566330289598E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.8130137356478999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.28131137892816099</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.72992495669487</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5.6349904960693502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D213A2-CCE2-4359-9865-301F20D5DF02}">
   <dimension ref="A1"/>
